--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/COLORADO_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/COLORADO_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1310"/>
+  <dimension ref="A1:D1304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C33">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C39">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C51">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C59">
@@ -1233,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="D65">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="66">
@@ -1350,7 +1350,7 @@
         <v>144</v>
       </c>
       <c r="D74">
-        <v>0.009162636803257827</v>
+        <v>0.009162636803257828</v>
       </c>
     </row>
     <row r="75">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C90">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C101">
@@ -1738,7 +1738,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C104">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C128">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C129">
@@ -2076,7 +2076,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C130">
@@ -2180,7 +2180,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C138">
@@ -2393,7 +2393,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C154">
@@ -2561,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="D166">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="167">
@@ -2580,7 +2580,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C168">
@@ -2606,7 +2606,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C174">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="D182">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="183">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C189">
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="D201">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="202">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C203">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C207">
@@ -3188,7 +3188,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C214">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C215">
@@ -3214,7 +3214,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C216">
@@ -3227,7 +3227,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C217">
@@ -3357,12 +3357,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C227">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C231">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C236">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C243">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C247">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C250">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C260">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C267">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C268">
@@ -3999,7 +3999,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C276">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C286">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C291">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C292">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C293">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C294">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C303">
@@ -4368,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C304">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C305">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C312">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C324">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C328">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C330">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C332">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C334">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C336">
@@ -4823,14 +4823,14 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C339">
         <v>142</v>
       </c>
       <c r="D339">
-        <v>0.009035377958768135</v>
+        <v>0.009035377958768137</v>
       </c>
     </row>
     <row r="340">
@@ -4882,7 +4882,7 @@
         <v>15</v>
       </c>
       <c r="D343">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="344">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C345">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C347">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C351">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C354">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C357">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C358">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C360">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C365">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C369">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C370">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C376">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C377">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C380">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C382">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C396">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C398">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C400">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C402">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C405">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C413">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C416">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C427">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C431">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C432">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C433">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C435">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C438">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C445">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C446">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C448">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C452">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C453">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C459">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C462">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C464">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C466">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C472">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C478">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C487">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C493">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C494">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C495">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C499">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C505">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C506">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C513">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C517">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C519">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C521">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C523">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C524">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C525">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C528">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C529">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C534">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C537">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C538">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C548">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C549">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C550">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C556">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C559">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C560">
@@ -8730,7 +8730,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C638">
@@ -8984,7 +8984,7 @@
         <v>15</v>
       </c>
       <c r="D657">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="658">
@@ -9047,7 +9047,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C662">
@@ -9125,7 +9125,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C668">
@@ -9177,7 +9177,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C672">
@@ -9242,7 +9242,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C677">
@@ -9255,7 +9255,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C678">
@@ -9333,7 +9333,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C684">
@@ -9390,7 +9390,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C688">
@@ -9403,7 +9403,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C689">
@@ -9455,7 +9455,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C693">
@@ -9546,7 +9546,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C700">
@@ -9668,7 +9668,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C709">
@@ -9759,7 +9759,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C716">
@@ -9798,7 +9798,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C719">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C723">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C728">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C731">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C733">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C735">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C736">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C741">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C746">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C752">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C757">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C763">
@@ -10434,7 +10434,7 @@
         <v>15</v>
       </c>
       <c r="D767">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="768">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C771">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C789">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C796">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C803">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C813">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C836">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C846">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C847">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C848">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C850">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C853">
@@ -11719,7 +11719,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C866">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C869">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C886">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C895">
@@ -12109,7 +12109,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C896">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C901">
@@ -12252,7 +12252,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C907">
@@ -12330,7 +12330,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C913">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C925">
@@ -12512,7 +12512,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C927">
@@ -12525,7 +12525,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C928">
@@ -12590,7 +12590,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C933">
@@ -12668,7 +12668,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C939">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C941">
@@ -12707,7 +12707,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C942">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C946">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C968">
@@ -13076,7 +13076,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C970">
@@ -13154,7 +13154,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C976">
@@ -13167,7 +13167,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C977">
@@ -13206,7 +13206,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C980">
@@ -13245,7 +13245,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C983">
@@ -13385,7 +13385,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C993">
@@ -13450,7 +13450,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C998">
@@ -13541,7 +13541,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1005">
@@ -13619,7 +13619,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1011">
@@ -13710,7 +13710,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1018">
@@ -13723,7 +13723,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1019">
@@ -14008,7 +14008,7 @@
         <v>15</v>
       </c>
       <c r="D1040">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="1041">
@@ -14266,7 +14266,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1060">
@@ -14505,7 +14505,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1078">
@@ -14738,7 +14738,7 @@
         <v>15</v>
       </c>
       <c r="D1095">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="1096">
@@ -15170,7 +15170,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1128">
@@ -15209,7 +15209,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1131">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1136">
@@ -15300,7 +15300,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1138">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1148">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1160">
@@ -15599,7 +15599,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1161">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1163">
@@ -15638,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1164">
@@ -15755,7 +15755,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1173">
@@ -15794,7 +15794,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1176">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1178">
@@ -15859,14 +15859,14 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1181">
         <v>15</v>
       </c>
       <c r="D1181">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="1182">
@@ -16028,7 +16028,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1194">
@@ -16041,7 +16041,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1195">
@@ -16087,13 +16087,13 @@
         <v>15</v>
       </c>
       <c r="D1198">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1199">
@@ -16184,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1206">
@@ -16210,7 +16210,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1208">
@@ -16470,7 +16470,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1228">
@@ -16870,7 +16870,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1258">
@@ -16896,7 +16896,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1260">
@@ -17039,7 +17039,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1271">
@@ -17117,7 +17117,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1277">
@@ -17169,7 +17169,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1281">
@@ -17182,7 +17182,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1282">
@@ -17325,7 +17325,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1293">
@@ -17338,7 +17338,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1294">
@@ -17377,7 +17377,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1297">
@@ -17397,7 +17397,7 @@
         <v>15</v>
       </c>
       <c r="D1298">
-        <v>0.0009544413336726903</v>
+        <v>0.0009544413336726904</v>
       </c>
     </row>
     <row r="1299">
@@ -17462,7 +17462,7 @@
         <v>1531</v>
       </c>
       <c r="D1303">
-        <v>0.09741664545685925</v>
+        <v>0.09741664545685924</v>
       </c>
     </row>
     <row r="1304">
@@ -17476,41 +17476,6 @@
       </c>
       <c r="D1304">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
